--- a/biology/Botanique/Bois_mussard/Bois_mussard.xlsx
+++ b/biology/Botanique/Bois_mussard/Bois_mussard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bois mussard est le nom donné, sur l'île de La Réunion, département d'outre-mer français dans le sud-ouest de l'océan Indien, à au moins deux espèces du genre Pyrostria, le pyrostre de Commerson (Pyrostria commersonii) et le pyrostre orbiculaire (Pyrostria orbicularis). Toutes deux sont endémiques de l'île.
  Portail de la botanique   Portail de La Réunion                    </t>
